--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288387.976574783</v>
+        <v>1286500.395058381</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481734.8329650654</v>
+        <v>589789.4117685043</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>329.658692875235</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>176.2579565692844</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>105.7316179494396</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>147.6979659320283</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>383.8290037847634</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>371.1138717213367</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>78.0850632036651</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>361.1664583402033</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.23382699312492</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497996</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>190.1030394608599</v>
+        <v>189.9536991951035</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2295410213243</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>103.572877713736</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>152.9037918253694</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>94.04575861150464</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>216.4586446023287</v>
+        <v>115.8199705913322</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>206.8064269214872</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>222.2179949548712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.69520250663606</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>122.3137095599315</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.85553884047321</v>
+        <v>105.1091131290408</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593968</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.4111058960621</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C2" t="n">
-        <v>803.4111058960621</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>803.4111058960621</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>803.4111058960621</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.010945960184</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="3">
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306105</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>578.9391196286279</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.9495687306105</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1760.851696582592</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.889179642181</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1391.889179642181</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1006.100927043936</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>595.1150222543288</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>2147.451536646714</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504894</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>501.1085244247949</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>501.1085244247949</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.775345511216</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1580.775345511216</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1222.509646904466</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>836.7213943062213</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>217.7808088763878</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>81.45189797503608</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,28 +5060,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N12" t="n">
-        <v>1949.360523305091</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1598612984388</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811257</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>563.1598612984388</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="X13" t="n">
-        <v>563.1598612984388</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.1598612984388</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5358,22 +5358,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>731.3177283550795</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5524109899876</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.963989254138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240055</v>
+        <v>920.3704617345001</v>
       </c>
       <c r="X19" t="n">
-        <v>542.1367719529251</v>
+        <v>920.3704617345001</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.1367719529251</v>
+        <v>825.3747459653034</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655736</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>665.685973528613</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>447.040877970705</v>
+        <v>837.8247430308809</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>837.8247430308809</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899877</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.10087974468</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550795</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018331</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028573</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765185</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706317</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706317</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X28" t="n">
-        <v>303.4081673726143</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="Y28" t="n">
-        <v>303.4081673726143</v>
+        <v>665.6859735286134</v>
       </c>
     </row>
     <row r="29">
@@ -6464,13 +6464,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.3437276440238</v>
+        <v>658.7225911205027</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440238</v>
+        <v>545.5472734739666</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264621</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,49 +6622,49 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1768.101513126951</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1534.73373962188</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1335.810116697364</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>1102.153811941774</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>929.9251263251275</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030879</v>
+        <v>764.8934124629682</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,34 +6695,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,31 +6853,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,10 +7011,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525401</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7190,31 +7190,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527472</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028586</v>
@@ -7333,49 +7333,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,49 +7394,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>993.1218759632263</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>993.1218759632263</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7807,25 +7807,25 @@
         <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,10 +11154,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>96.41995887573108</v>
+        <v>96.56929914148751</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0.01728007730353511</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>122.1367776753012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>72.80586356366774</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>124.5388947405902</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>9.251010786708463</v>
+        <v>109.8896847977049</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>79.43092547709011</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>64.30500338171981</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.1367776753012</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>44.93311153869637</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.773184712907</v>
+        <v>19.51961042433938</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958021.1963573871</v>
+        <v>958021.1963573872</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996714.2364959122</v>
+        <v>996714.2364959121</v>
       </c>
     </row>
     <row r="12">
@@ -26314,31 +26314,31 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
+        <v>410580.5127245945</v>
+      </c>
+      <c r="F2" t="n">
+        <v>410580.5127245945</v>
+      </c>
+      <c r="G2" t="n">
         <v>410580.5127245944</v>
-      </c>
-      <c r="F2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
         <v>410580.5127245944</v>
       </c>
       <c r="I2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="J2" t="n">
         <v>410580.5127245944</v>
       </c>
-      <c r="J2" t="n">
-        <v>410580.5127245943</v>
-      </c>
       <c r="K2" t="n">
-        <v>427163.2442125334</v>
+        <v>427163.2442125333</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787487</v>
@@ -26347,10 +26347,10 @@
         <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787486</v>
-      </c>
-      <c r="O2" t="n">
-        <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787487</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759308</v>
+        <v>787.7936905758513</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758772</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758424</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758901</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758902</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477241</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189641</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380839.1672798243</v>
+        <v>-380839.1672798244</v>
       </c>
       <c r="C6" t="n">
         <v>209128.7119347203</v>
       </c>
       <c r="D6" t="n">
-        <v>209128.7119347201</v>
+        <v>209128.7119347203</v>
       </c>
       <c r="E6" t="n">
-        <v>-207354.6433915941</v>
+        <v>-207452.1025175663</v>
       </c>
       <c r="F6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593299</v>
       </c>
       <c r="G6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593297</v>
       </c>
       <c r="H6" t="n">
-        <v>317805.3930853019</v>
+        <v>317707.9339593298</v>
       </c>
       <c r="I6" t="n">
-        <v>317805.393085302</v>
+        <v>317707.9339593296</v>
       </c>
       <c r="J6" t="n">
-        <v>141382.1738927089</v>
+        <v>141284.7147667369</v>
       </c>
       <c r="K6" t="n">
-        <v>267420.0141746924</v>
+        <v>267401.5204367581</v>
       </c>
       <c r="L6" t="n">
-        <v>299782.3356259602</v>
+        <v>299782.33562596</v>
       </c>
       <c r="M6" t="n">
         <v>175324.2271929898</v>
       </c>
       <c r="N6" t="n">
+        <v>310125.242426827</v>
+      </c>
+      <c r="O6" t="n">
         <v>310125.2424268269</v>
-      </c>
-      <c r="O6" t="n">
-        <v>310125.242426827</v>
       </c>
       <c r="P6" t="n">
         <v>265962.6371239814</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>35.61419889577252</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>230.6180891724271</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>61.51520314918821</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>77.33713952605598</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29.95516623603157</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>15.12406693471689</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>208.1968110383126</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.70958740150814</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>17.96613219541208</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-4.421918538691666e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.432625713487</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31841,19 +31841,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>409.410311565473</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>175.1732645054591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -32020,7 +32020,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
         <v>76.06970478104648</v>
@@ -32078,25 +32078,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>371.8925761935062</v>
+        <v>56.67533657702251</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32312,13 +32312,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>92.21452536007951</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32330,10 +32330,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>256.9624847376525</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,22 +32786,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>201.5176914958845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731435</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,7 +33509,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33670,7 +33670,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946992</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34214,25 +34214,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>89.6264723613296</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939094</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>732.9813413934546</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>426.4393393377442</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>719.8932384537264</v>
+        <v>404.6759988372427</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>324.5004908836645</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
@@ -35978,10 +35978,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>441.4508459632594</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36373,13 +36373,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>525.0887213238661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>592.1206839096351</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333637</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,10 +37157,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>321.9124378849146</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
